--- a/InputData/bldgs/RBFF/Recipient Buildings Fuel Fractions.xlsx
+++ b/InputData/bldgs/RBFF/Recipient Buildings Fuel Fractions.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipD\InputData\bldgs\RBFF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\RBFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559853F3-65E9-4583-99D0-0984837994EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25815" windowHeight="11295"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="RBFF" sheetId="2" r:id="rId2"/>
+    <sheet name="Texas Notes" sheetId="3" r:id="rId2"/>
+    <sheet name="RBFF" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>RBFF Recipient Buildings Fuel Fractions</t>
   </si>
@@ -91,12 +93,15 @@
   </si>
   <si>
     <t>Ensure that every column adds to 1.</t>
+  </si>
+  <si>
+    <t>We will probably need to change this for any scenarios where we want to see more hydrogen or renewable natural gas.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -429,10 +434,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -496,7 +501,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6B9BDB-67DD-4D1E-B919-4B7033244A2F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>

--- a/InputData/bldgs/RBFF/Recipient Buildings Fuel Fractions.xlsx
+++ b/InputData/bldgs/RBFF/Recipient Buildings Fuel Fractions.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\RBFF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipD\InputData\bldgs\RBFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559853F3-65E9-4583-99D0-0984837994EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25815" windowHeight="11295"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Texas Notes" sheetId="3" r:id="rId2"/>
-    <sheet name="RBFF" sheetId="2" r:id="rId3"/>
+    <sheet name="RBFF" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>RBFF Recipient Buildings Fuel Fractions</t>
   </si>
@@ -93,15 +91,12 @@
   </si>
   <si>
     <t>Ensure that every column adds to 1.</t>
-  </si>
-  <si>
-    <t>We will probably need to change this for any scenarios where we want to see more hydrogen or renewable natural gas.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -434,10 +429,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -501,27 +496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6B9BDB-67DD-4D1E-B919-4B7033244A2F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>

--- a/InputData/bldgs/RBFF/Recipient Buildings Fuel Fractions.xlsx
+++ b/InputData/bldgs/RBFF/Recipient Buildings Fuel Fractions.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\RBFF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\NEW_US\InputData\bldgs\RBFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559853F3-65E9-4583-99D0-0984837994EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4E3257-D795-4A92-804F-0180AA3862CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9660" yWindow="1080" windowWidth="17205" windowHeight="16065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Texas Notes" sheetId="3" r:id="rId2"/>
-    <sheet name="RBFF" sheetId="2" r:id="rId3"/>
+    <sheet name="RBFF" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>RBFF Recipient Buildings Fuel Fractions</t>
   </si>
@@ -93,9 +92,6 @@
   </si>
   <si>
     <t>Ensure that every column adds to 1.</t>
-  </si>
-  <si>
-    <t>We will probably need to change this for any scenarios where we want to see more hydrogen or renewable natural gas.</t>
   </si>
 </sst>
 </file>
@@ -437,7 +433,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -501,33 +499,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6B9BDB-67DD-4D1E-B919-4B7033244A2F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -591,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5">
         <v>1</v>
@@ -766,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="5">
         <v>0</v>
